--- a/natmiOut/OldD2/LR-pairs_lrc2p/Il1a-Il1rap.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Il1a-Il1rap.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>Il1a</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.97778729124989</v>
+        <v>3.056073</v>
       </c>
       <c r="H2">
-        <v>2.97778729124989</v>
+        <v>9.168219000000001</v>
       </c>
       <c r="I2">
-        <v>0.4563606787762515</v>
+        <v>0.4559514113020136</v>
       </c>
       <c r="J2">
-        <v>0.4563606787762515</v>
+        <v>0.4559514113020135</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.97385480470474</v>
+        <v>1.974591</v>
       </c>
       <c r="N2">
-        <v>1.97385480470474</v>
+        <v>3.949182</v>
       </c>
       <c r="O2">
-        <v>0.06803333923253485</v>
+        <v>0.06180909787364696</v>
       </c>
       <c r="P2">
-        <v>0.06803333923253485</v>
+        <v>0.04563698887180197</v>
       </c>
       <c r="Q2">
-        <v>5.877719752222308</v>
+        <v>6.034494241143001</v>
       </c>
       <c r="R2">
-        <v>5.877719752222308</v>
+        <v>36.20696544685801</v>
       </c>
       <c r="S2">
-        <v>0.03104774087157458</v>
+        <v>0.02818194540679362</v>
       </c>
       <c r="T2">
-        <v>0.03104774087157458</v>
+        <v>0.02080824948367239</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.97778729124989</v>
+        <v>3.056073</v>
       </c>
       <c r="H3">
-        <v>2.97778729124989</v>
+        <v>9.168219000000001</v>
       </c>
       <c r="I3">
-        <v>0.4563606787762515</v>
+        <v>0.4559514113020136</v>
       </c>
       <c r="J3">
-        <v>0.4563606787762515</v>
+        <v>0.4559514113020135</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.12902989469688</v>
+        <v>7.979832333333334</v>
       </c>
       <c r="N3">
-        <v>7.12902989469688</v>
+        <v>23.939497</v>
       </c>
       <c r="O3">
-        <v>0.2457180275209482</v>
+        <v>0.2497865318469965</v>
       </c>
       <c r="P3">
-        <v>0.2457180275209482</v>
+        <v>0.2766462923677706</v>
       </c>
       <c r="Q3">
-        <v>21.22873461936891</v>
+        <v>24.386950138427</v>
       </c>
       <c r="R3">
-        <v>21.22873461936891</v>
+        <v>219.482551245843</v>
       </c>
       <c r="S3">
-        <v>0.1121360458270216</v>
+        <v>0.1138905217198734</v>
       </c>
       <c r="T3">
-        <v>0.1121360458270216</v>
+        <v>0.1261372674365544</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.97778729124989</v>
+        <v>3.056073</v>
       </c>
       <c r="H4">
-        <v>2.97778729124989</v>
+        <v>9.168219000000001</v>
       </c>
       <c r="I4">
-        <v>0.4563606787762515</v>
+        <v>0.4559514113020136</v>
       </c>
       <c r="J4">
-        <v>0.4563606787762515</v>
+        <v>0.4559514113020135</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.3738813118411</v>
+        <v>7.758748</v>
       </c>
       <c r="N4">
-        <v>6.3738813118411</v>
+        <v>23.276244</v>
       </c>
       <c r="O4">
-        <v>0.2196901355068341</v>
+        <v>0.2428660996170663</v>
       </c>
       <c r="P4">
-        <v>0.2196901355068341</v>
+        <v>0.2689817001103893</v>
       </c>
       <c r="Q4">
-        <v>18.98006276633561</v>
+        <v>23.711300276604</v>
       </c>
       <c r="R4">
-        <v>18.98006276633561</v>
+        <v>213.401702489436</v>
       </c>
       <c r="S4">
-        <v>0.1002579393603455</v>
+        <v>0.1107351408778168</v>
       </c>
       <c r="T4">
-        <v>0.1002579393603455</v>
+        <v>0.122642585779747</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.97778729124989</v>
+        <v>3.056073</v>
       </c>
       <c r="H5">
-        <v>2.97778729124989</v>
+        <v>9.168219000000001</v>
       </c>
       <c r="I5">
-        <v>0.4563606787762515</v>
+        <v>0.4559514113020136</v>
       </c>
       <c r="J5">
-        <v>0.4563606787762515</v>
+        <v>0.4559514113020135</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.64872786355339</v>
+        <v>4.653158666666667</v>
       </c>
       <c r="N5">
-        <v>4.64872786355339</v>
+        <v>13.959476</v>
       </c>
       <c r="O5">
-        <v>0.1602288471203807</v>
+        <v>0.1456542339398937</v>
       </c>
       <c r="P5">
-        <v>0.1602288471203807</v>
+        <v>0.1613165589401012</v>
       </c>
       <c r="Q5">
-        <v>13.84292275256854</v>
+        <v>14.220392565916</v>
       </c>
       <c r="R5">
-        <v>13.84292275256854</v>
+        <v>127.983533093244</v>
       </c>
       <c r="S5">
-        <v>0.07312214543139318</v>
+        <v>0.06641125352700815</v>
       </c>
       <c r="T5">
-        <v>0.07312214543139318</v>
+        <v>0.07355251271512359</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.97778729124989</v>
+        <v>3.056073</v>
       </c>
       <c r="H6">
-        <v>2.97778729124989</v>
+        <v>9.168219000000001</v>
       </c>
       <c r="I6">
-        <v>0.4563606787762515</v>
+        <v>0.4559514113020136</v>
       </c>
       <c r="J6">
-        <v>0.4563606787762515</v>
+        <v>0.4559514113020135</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.04058791343723</v>
+        <v>2.249720666666667</v>
       </c>
       <c r="N6">
-        <v>2.04058791343723</v>
+        <v>6.749162</v>
       </c>
       <c r="O6">
-        <v>0.07033344571129799</v>
+        <v>0.07042126945497384</v>
       </c>
       <c r="P6">
-        <v>0.07033344571129799</v>
+        <v>0.07799372910339122</v>
       </c>
       <c r="Q6">
-        <v>6.076436755311514</v>
+        <v>6.875310586942001</v>
       </c>
       <c r="R6">
-        <v>6.076436755311514</v>
+        <v>61.877795282478</v>
       </c>
       <c r="S6">
-        <v>0.03209741902548058</v>
+        <v>0.0321086771936747</v>
       </c>
       <c r="T6">
-        <v>0.03209741902548058</v>
+        <v>0.03556135085739815</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.97778729124989</v>
+        <v>3.056073</v>
       </c>
       <c r="H7">
-        <v>2.97778729124989</v>
+        <v>9.168219000000001</v>
       </c>
       <c r="I7">
-        <v>0.4563606787762515</v>
+        <v>0.4559514113020136</v>
       </c>
       <c r="J7">
-        <v>0.4563606787762515</v>
+        <v>0.4559514113020135</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.84697015029042</v>
+        <v>7.330557000000001</v>
       </c>
       <c r="N7">
-        <v>6.84697015029042</v>
+        <v>14.661114</v>
       </c>
       <c r="O7">
-        <v>0.2359962049080041</v>
+        <v>0.2294627672674229</v>
       </c>
       <c r="P7">
-        <v>0.2359962049080041</v>
+        <v>0.1694247306065459</v>
       </c>
       <c r="Q7">
-        <v>20.38882069710216</v>
+        <v>22.402717322661</v>
       </c>
       <c r="R7">
-        <v>20.38882069710216</v>
+        <v>134.416303935966</v>
       </c>
       <c r="S7">
-        <v>0.1076993882604361</v>
+        <v>0.1046238725768469</v>
       </c>
       <c r="T7">
-        <v>0.1076993882604361</v>
+        <v>0.07724944502951804</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.54728690934719</v>
+        <v>3.592139</v>
       </c>
       <c r="H8">
-        <v>3.54728690934719</v>
+        <v>10.776417</v>
       </c>
       <c r="I8">
-        <v>0.5436393212237485</v>
+        <v>0.5359298834298145</v>
       </c>
       <c r="J8">
-        <v>0.5436393212237485</v>
+        <v>0.5359298834298145</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.97385480470474</v>
+        <v>1.974591</v>
       </c>
       <c r="N8">
-        <v>1.97385480470474</v>
+        <v>3.949182</v>
       </c>
       <c r="O8">
-        <v>0.06803333923253485</v>
+        <v>0.06180909787364696</v>
       </c>
       <c r="P8">
-        <v>0.06803333923253485</v>
+        <v>0.04563698887180197</v>
       </c>
       <c r="Q8">
-        <v>7.001829309681178</v>
+        <v>7.093005340149</v>
       </c>
       <c r="R8">
-        <v>7.001829309681178</v>
+        <v>42.55803204089401</v>
       </c>
       <c r="S8">
-        <v>0.03698559836096026</v>
+        <v>0.03312534261832561</v>
       </c>
       <c r="T8">
-        <v>0.03698559836096026</v>
+        <v>0.02445822612615257</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.54728690934719</v>
+        <v>3.592139</v>
       </c>
       <c r="H9">
-        <v>3.54728690934719</v>
+        <v>10.776417</v>
       </c>
       <c r="I9">
-        <v>0.5436393212237485</v>
+        <v>0.5359298834298145</v>
       </c>
       <c r="J9">
-        <v>0.5436393212237485</v>
+        <v>0.5359298834298145</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.12902989469688</v>
+        <v>7.979832333333334</v>
       </c>
       <c r="N9">
-        <v>7.12902989469688</v>
+        <v>23.939497</v>
       </c>
       <c r="O9">
-        <v>0.2457180275209482</v>
+        <v>0.2497865318469965</v>
       </c>
       <c r="P9">
-        <v>0.2457180275209482</v>
+        <v>0.2766462923677706</v>
       </c>
       <c r="Q9">
-        <v>25.28871442180302</v>
+        <v>28.66466693802767</v>
       </c>
       <c r="R9">
-        <v>25.28871442180302</v>
+        <v>257.982002442249</v>
       </c>
       <c r="S9">
-        <v>0.1335819816939266</v>
+        <v>0.1338680668950984</v>
       </c>
       <c r="T9">
-        <v>0.1335819816939266</v>
+        <v>0.1482630152199497</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.54728690934719</v>
+        <v>3.592139</v>
       </c>
       <c r="H10">
-        <v>3.54728690934719</v>
+        <v>10.776417</v>
       </c>
       <c r="I10">
-        <v>0.5436393212237485</v>
+        <v>0.5359298834298145</v>
       </c>
       <c r="J10">
-        <v>0.5436393212237485</v>
+        <v>0.5359298834298145</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.3738813118411</v>
+        <v>7.758748</v>
       </c>
       <c r="N10">
-        <v>6.3738813118411</v>
+        <v>23.276244</v>
       </c>
       <c r="O10">
-        <v>0.2196901355068341</v>
+        <v>0.2428660996170663</v>
       </c>
       <c r="P10">
-        <v>0.2196901355068341</v>
+        <v>0.2689817001103893</v>
       </c>
       <c r="Q10">
-        <v>22.60998573922663</v>
+        <v>27.870501281972</v>
       </c>
       <c r="R10">
-        <v>22.60998573922663</v>
+        <v>250.834511537748</v>
       </c>
       <c r="S10">
-        <v>0.1194321961464886</v>
+        <v>0.1301592004568281</v>
       </c>
       <c r="T10">
-        <v>0.1194321961464886</v>
+        <v>0.1441553311849143</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.54728690934719</v>
+        <v>3.592139</v>
       </c>
       <c r="H11">
-        <v>3.54728690934719</v>
+        <v>10.776417</v>
       </c>
       <c r="I11">
-        <v>0.5436393212237485</v>
+        <v>0.5359298834298145</v>
       </c>
       <c r="J11">
-        <v>0.5436393212237485</v>
+        <v>0.5359298834298145</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.64872786355339</v>
+        <v>4.653158666666667</v>
       </c>
       <c r="N11">
-        <v>4.64872786355339</v>
+        <v>13.959476</v>
       </c>
       <c r="O11">
-        <v>0.1602288471203807</v>
+        <v>0.1456542339398937</v>
       </c>
       <c r="P11">
-        <v>0.1602288471203807</v>
+        <v>0.1613165589401012</v>
       </c>
       <c r="Q11">
-        <v>16.49037149550047</v>
+        <v>16.71479271972133</v>
       </c>
       <c r="R11">
-        <v>16.49037149550047</v>
+        <v>150.433134477492</v>
       </c>
       <c r="S11">
-        <v>0.08710670168898756</v>
+        <v>0.07806045661646614</v>
       </c>
       <c r="T11">
-        <v>0.08710670168898756</v>
+        <v>0.08645436462806723</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.54728690934719</v>
+        <v>3.592139</v>
       </c>
       <c r="H12">
-        <v>3.54728690934719</v>
+        <v>10.776417</v>
       </c>
       <c r="I12">
-        <v>0.5436393212237485</v>
+        <v>0.5359298834298145</v>
       </c>
       <c r="J12">
-        <v>0.5436393212237485</v>
+        <v>0.5359298834298145</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.04058791343723</v>
+        <v>2.249720666666667</v>
       </c>
       <c r="N12">
-        <v>2.04058791343723</v>
+        <v>6.749162</v>
       </c>
       <c r="O12">
-        <v>0.07033344571129799</v>
+        <v>0.07042126945497384</v>
       </c>
       <c r="P12">
-        <v>0.07033344571129799</v>
+        <v>0.07799372910339122</v>
       </c>
       <c r="Q12">
-        <v>7.238550792707983</v>
+        <v>8.081309345839333</v>
       </c>
       <c r="R12">
-        <v>7.238550792707983</v>
+        <v>72.73178411255401</v>
       </c>
       <c r="S12">
-        <v>0.0382360266858174</v>
+        <v>0.03774086272998369</v>
       </c>
       <c r="T12">
-        <v>0.0382360266858174</v>
+        <v>0.04179917014663699</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,433 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.54728690934719</v>
+        <v>3.592139</v>
       </c>
       <c r="H13">
-        <v>3.54728690934719</v>
+        <v>10.776417</v>
       </c>
       <c r="I13">
-        <v>0.5436393212237485</v>
+        <v>0.5359298834298145</v>
       </c>
       <c r="J13">
-        <v>0.5436393212237485</v>
+        <v>0.5359298834298145</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.84697015029042</v>
+        <v>7.330557000000001</v>
       </c>
       <c r="N13">
-        <v>6.84697015029042</v>
+        <v>14.661114</v>
       </c>
       <c r="O13">
-        <v>0.2359962049080041</v>
+        <v>0.2294627672674229</v>
       </c>
       <c r="P13">
-        <v>0.2359962049080041</v>
+        <v>0.1694247306065459</v>
       </c>
       <c r="Q13">
-        <v>24.28816758281617</v>
+        <v>26.332379691423</v>
       </c>
       <c r="R13">
-        <v>24.28816758281617</v>
+        <v>157.994278148538</v>
       </c>
       <c r="S13">
-        <v>0.128296816647568</v>
+        <v>0.1229759541131126</v>
       </c>
       <c r="T13">
-        <v>0.128296816647568</v>
+        <v>0.09079977612409387</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.05441666666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.16325</v>
+      </c>
+      <c r="I14">
+        <v>0.0081187052681719</v>
+      </c>
+      <c r="J14">
+        <v>0.008118705268171898</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.974591</v>
+      </c>
+      <c r="N14">
+        <v>3.949182</v>
+      </c>
+      <c r="O14">
+        <v>0.06180909787364696</v>
+      </c>
+      <c r="P14">
+        <v>0.04563698887180197</v>
+      </c>
+      <c r="Q14">
+        <v>0.10745066025</v>
+      </c>
+      <c r="R14">
+        <v>0.6447039615000001</v>
+      </c>
+      <c r="S14">
+        <v>0.0005018098485277302</v>
+      </c>
+      <c r="T14">
+        <v>0.000370513261977001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.05441666666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.16325</v>
+      </c>
+      <c r="I15">
+        <v>0.0081187052681719</v>
+      </c>
+      <c r="J15">
+        <v>0.008118705268171898</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>7.979832333333334</v>
+      </c>
+      <c r="N15">
+        <v>23.939497</v>
+      </c>
+      <c r="O15">
+        <v>0.2497865318469965</v>
+      </c>
+      <c r="P15">
+        <v>0.2766462923677706</v>
+      </c>
+      <c r="Q15">
+        <v>0.434235876138889</v>
+      </c>
+      <c r="R15">
+        <v>3.908122885250001</v>
+      </c>
+      <c r="S15">
+        <v>0.002027943232024598</v>
+      </c>
+      <c r="T15">
+        <v>0.002246009711266442</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.05441666666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.16325</v>
+      </c>
+      <c r="I16">
+        <v>0.0081187052681719</v>
+      </c>
+      <c r="J16">
+        <v>0.008118705268171898</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>7.758748</v>
+      </c>
+      <c r="N16">
+        <v>23.276244</v>
+      </c>
+      <c r="O16">
+        <v>0.2428660996170663</v>
+      </c>
+      <c r="P16">
+        <v>0.2689817001103893</v>
+      </c>
+      <c r="Q16">
+        <v>0.4222052036666667</v>
+      </c>
+      <c r="R16">
+        <v>3.799846833</v>
+      </c>
+      <c r="S16">
+        <v>0.001971758282421437</v>
+      </c>
+      <c r="T16">
+        <v>0.002183783145728051</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.05441666666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.16325</v>
+      </c>
+      <c r="I17">
+        <v>0.0081187052681719</v>
+      </c>
+      <c r="J17">
+        <v>0.008118705268171898</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>4.653158666666667</v>
+      </c>
+      <c r="N17">
+        <v>13.959476</v>
+      </c>
+      <c r="O17">
+        <v>0.1456542339398937</v>
+      </c>
+      <c r="P17">
+        <v>0.1613165589401012</v>
+      </c>
+      <c r="Q17">
+        <v>0.2532093841111112</v>
+      </c>
+      <c r="R17">
+        <v>2.278884457</v>
+      </c>
+      <c r="S17">
+        <v>0.001182523796419357</v>
+      </c>
+      <c r="T17">
+        <v>0.001309681596910362</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.05441666666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.16325</v>
+      </c>
+      <c r="I18">
+        <v>0.0081187052681719</v>
+      </c>
+      <c r="J18">
+        <v>0.008118705268171898</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.249720666666667</v>
+      </c>
+      <c r="N18">
+        <v>6.749162</v>
+      </c>
+      <c r="O18">
+        <v>0.07042126945497384</v>
+      </c>
+      <c r="P18">
+        <v>0.07799372910339122</v>
+      </c>
+      <c r="Q18">
+        <v>0.1224222996111111</v>
+      </c>
+      <c r="R18">
+        <v>1.1018006965</v>
+      </c>
+      <c r="S18">
+        <v>0.0005717295313154491</v>
+      </c>
+      <c r="T18">
+        <v>0.0006332080993560743</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.05441666666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.16325</v>
+      </c>
+      <c r="I19">
+        <v>0.0081187052681719</v>
+      </c>
+      <c r="J19">
+        <v>0.008118705268171898</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>7.330557000000001</v>
+      </c>
+      <c r="N19">
+        <v>14.661114</v>
+      </c>
+      <c r="O19">
+        <v>0.2294627672674229</v>
+      </c>
+      <c r="P19">
+        <v>0.1694247306065459</v>
+      </c>
+      <c r="Q19">
+        <v>0.3989044767500001</v>
+      </c>
+      <c r="R19">
+        <v>2.3934268605</v>
+      </c>
+      <c r="S19">
+        <v>0.001862940577463329</v>
+      </c>
+      <c r="T19">
+        <v>0.001375509452933969</v>
       </c>
     </row>
   </sheetData>
